--- a/resources/experiment 2/metrics/MAPE/average time/Neuropatía.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Neuropatía.xlsx
@@ -465,10 +465,10 @@
         <v>3116217841897312</v>
       </c>
       <c r="C2" t="n">
-        <v>3116217841897312</v>
+        <v>3116217841897310</v>
       </c>
       <c r="D2" t="n">
-        <v>3116217841897312</v>
+        <v>3116217841897310</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04525834892459757</v>
+        <v>0.01563893249948844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04525834892459757</v>
+        <v>0.01572012307778733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04525834892459757</v>
+        <v>27921275273152.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24239067635732.59</v>
+        <v>0.0183486151580953</v>
       </c>
       <c r="C4" t="n">
-        <v>24239067635732.59</v>
+        <v>0.01644346821533299</v>
       </c>
       <c r="D4" t="n">
-        <v>24239067635732.59</v>
+        <v>0.06618937460749016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1248488547110977</v>
+        <v>16415459561377.41</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1248488547110977</v>
+        <v>6918320710080.099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1248488547110977</v>
+        <v>180430873993600.5</v>
       </c>
     </row>
   </sheetData>
